--- a/data/sample_solutions_censored.xlsx
+++ b/data/sample_solutions_censored.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Users\Lukas\PyCharmProjects\ct-solver-v01\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Users\Lukas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDA54EC-B2DC-47B6-AEDA-1A5DA179F286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC873DAD-992B-44C3-AF6C-C28D7F2D4E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C33311FD-58FD-4CDF-835E-5DE7D1C349B6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C33311FD-58FD-4CDF-835E-5DE7D1C349B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -3303,8 +3303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EC2887-0487-4787-8FE6-14DAE3DBEF8C}">
   <dimension ref="A1:H237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3336,7 +3336,7 @@
       <c r="E1" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="8" t="s">
